--- a/Treino.xlsx
+++ b/Treino.xlsx
@@ -213,36 +213,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>9</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="190500" cy="190500"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -529,12 +499,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,26 +579,10 @@
       </c>
       <c r="D9" s="8" t="n"/>
     </row>
-    <row r="10">
-      <c r="A10" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>erewr</t>
-        </is>
-      </c>
-      <c r="C10">
-        <f>HYPERLINK("werwer","")</f>
-        <v/>
-      </c>
-      <c r="D10" s="8" t="n"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A9:C9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>